--- a/data/trans_camb/P43C-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P43C-Provincia-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.173231636628024</v>
+        <v>5.6451809250006</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.813143684389158</v>
+        <v>5.929219018378681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24.6785719440792</v>
+        <v>24.27947397667865</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>22.94252962806337</v>
+        <v>22.42967083559855</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.36441849042617</v>
+        <v>22.14077950565269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41.00989997185862</v>
+        <v>39.74400777915609</v>
       </c>
     </row>
     <row r="7">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.09601156864983842</v>
+        <v>0.09337593365128269</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.09235801347297835</v>
+        <v>0.0942414179492797</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3920868513310399</v>
+        <v>0.3867820849535696</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.435480289376688</v>
+        <v>0.4284307937106287</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4250978871889057</v>
+        <v>0.4200044859941488</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7874639263509627</v>
+        <v>0.7652852339292503</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>19.1843659162596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.860024637781167</v>
+        <v>2.860024637781178</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.56923493376434</v>
+        <v>12.48969595672225</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>13.63439425583828</v>
+        <v>12.97745041125213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-3.477323196248836</v>
+        <v>-3.648987925978733</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.79181937532657</v>
+        <v>24.14329460803341</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.40548707254499</v>
+        <v>25.10156144139978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.666716029992063</v>
+        <v>9.268540444934047</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>0.3511969764237621</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.0523567997853351</v>
+        <v>0.05235679978533531</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2140292525368341</v>
+        <v>0.21086591607782</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.234805497807964</v>
+        <v>0.2230945141774748</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06158461052212161</v>
+        <v>-0.06158110022244267</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4817233198895599</v>
+        <v>0.4677927757963523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4919191779626869</v>
+        <v>0.494354299056167</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1703941513196206</v>
+        <v>0.1824127380209428</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>22.03757374031293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.208166400600835</v>
+        <v>6.208166400600845</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.339223571889823</v>
+        <v>-7.299179087437929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.12695430943423</v>
+        <v>13.94302799473623</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.6856467234026</v>
+        <v>-1.794791248883602</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.065822085640535</v>
+        <v>7.881835661119185</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.87537403892583</v>
+        <v>29.01919236544068</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.34433360759632</v>
+        <v>13.11390497075266</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>0.3883853039950092</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.1094113455120636</v>
+        <v>0.1094113455120638</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1231582610192174</v>
+        <v>-0.122279025291463</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2535875140843262</v>
+        <v>0.2301816614863691</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.0246971999548475</v>
+        <v>-0.03025272360702809</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1337260710327163</v>
+        <v>0.1489674014715181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.5552002256817214</v>
+        <v>0.5578159393794371</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2523107929643628</v>
+        <v>0.2489915455864009</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.644042685691355</v>
+        <v>3.545427869831166</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.88340859142679</v>
+        <v>6.008257456708526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.730526671479972</v>
+        <v>2.167680357962113</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.92192491545857</v>
+        <v>16.99305628620506</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.41642360665472</v>
+        <v>20.07671855769282</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.71116950568949</v>
+        <v>16.90331184994144</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06039538683840193</v>
+        <v>0.059179048454342</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1036816069517278</v>
+        <v>0.1037161146095372</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02948762359224234</v>
+        <v>0.03626920704127436</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3387957205505824</v>
+        <v>0.3212602842292506</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3889759023996992</v>
+        <v>0.3862362356663395</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3157510239358186</v>
+        <v>0.3184771706901455</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.86704384415543</v>
+        <v>11.69395607711483</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.883426823415368</v>
+        <v>-7.787306797002222</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.34843454376084</v>
+        <v>-11.27002827315678</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>31.20451964733</v>
+        <v>31.00350141240081</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.861092497423</v>
+        <v>11.39623826961084</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.816346747132958</v>
+        <v>7.271625932025244</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2380381029993848</v>
+        <v>0.2478630411694605</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.167147643798149</v>
+        <v>-0.171014925615646</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2236738548618003</v>
+        <v>-0.2390870407610495</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.860561263122286</v>
+        <v>0.8678129110977575</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3342576439763187</v>
+        <v>0.3105639965372749</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1899105362059278</v>
+        <v>0.2050069292532368</v>
       </c>
     </row>
     <row r="34">
@@ -1120,7 +1120,7 @@
         <v>-23.1509764170203</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-4.922015080252873</v>
+        <v>-4.922015080252878</v>
       </c>
     </row>
     <row r="35">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.4303906646380137</v>
+        <v>-0.4042929078540184</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-30.58768394813943</v>
+        <v>-30.7686680536772</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.96286231590131</v>
+        <v>-12.94358173670344</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>16.40626428028455</v>
+        <v>16.7226792349095</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-14.87149808650177</v>
+        <v>-15.18263008268453</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.617418061692651</v>
+        <v>3.176289256864874</v>
       </c>
     </row>
     <row r="37">
@@ -1171,7 +1171,7 @@
         <v>-0.4995063595543334</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1061975870962025</v>
+        <v>-0.1061975870962026</v>
       </c>
     </row>
     <row r="38">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.006734655405372036</v>
+        <v>-0.007110587837904539</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.6158076804913248</v>
+        <v>-0.6167732318551206</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.2619967514681654</v>
+        <v>-0.2547697796923196</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.3850818780561198</v>
+        <v>0.4053579578951514</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.3564251569603822</v>
+        <v>-0.3580606550530023</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.05971813291719822</v>
+        <v>0.07616161662854885</v>
       </c>
     </row>
     <row r="40">
@@ -1226,7 +1226,7 @@
         <v>-1.553027902865889</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10.23229622983186</v>
+        <v>10.23229622983187</v>
       </c>
     </row>
     <row r="41">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.33405773332531</v>
+        <v>-4.892575731787507</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.949394707775436</v>
+        <v>-6.237384355094475</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4.535572329628531</v>
+        <v>4.328387121084751</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.602984731262318</v>
+        <v>6.300754649081995</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.267420028692849</v>
+        <v>4.276959657425493</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.53343989357879</v>
+        <v>15.4220815165232</v>
       </c>
     </row>
     <row r="43">
@@ -1277,7 +1277,7 @@
         <v>-0.02445319567986524</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1611125862585567</v>
+        <v>0.1611125862585568</v>
       </c>
     </row>
     <row r="44">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0804756630185928</v>
+        <v>-0.07387946571457726</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1066279081091148</v>
+        <v>-0.09592440248178259</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.068301317185645</v>
+        <v>0.06534132570527915</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.09178403328935404</v>
+        <v>0.1026854410180363</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.07207509780728366</v>
+        <v>0.06944016887402017</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.2564565393479811</v>
+        <v>0.2538703555143161</v>
       </c>
     </row>
     <row r="46">
@@ -1332,7 +1332,7 @@
         <v>19.38256571050255</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-7.256705808217124</v>
+        <v>-7.256705808217117</v>
       </c>
     </row>
     <row r="47">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>13.30457049803957</v>
+        <v>12.90945820851134</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>14.54442043903673</v>
+        <v>14.3119076153559</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.18967656279627</v>
+        <v>-12.28176042188157</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>23.25720064613051</v>
+        <v>23.48472193754983</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>24.37144171018103</v>
+        <v>24.12306759683107</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-2.191164314602269</v>
+        <v>-2.138784716430227</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
         <v>0.4100784557697692</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1535306912539824</v>
+        <v>-0.1535306912539823</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.266027741766006</v>
+        <v>0.2570266783012906</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.287996351379131</v>
+        <v>0.2876182987648676</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2464790837225586</v>
+        <v>-0.2482156844748604</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.5190704406171274</v>
+        <v>0.5306207888524881</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5458204221705104</v>
+        <v>0.5405927041992959</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.05076528454237832</v>
+        <v>-0.05107729062517456</v>
       </c>
     </row>
     <row r="52">
@@ -1438,7 +1438,7 @@
         <v>10.12982314866326</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4.125622070014656</v>
+        <v>4.125622070014678</v>
       </c>
     </row>
     <row r="53">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>9.092975109721765</v>
+        <v>8.864021570546768</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>7.649677765579457</v>
+        <v>7.806126068716432</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.667406083853536</v>
+        <v>1.901414407845475</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>13.78703806696256</v>
+        <v>13.72363058324445</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>12.48839315476545</v>
+        <v>12.57443810622653</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.427401105745903</v>
+        <v>6.588710533218897</v>
       </c>
     </row>
     <row r="55">
@@ -1489,7 +1489,7 @@
         <v>0.1882450504313919</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.0766674721989847</v>
+        <v>0.07666747219898512</v>
       </c>
     </row>
     <row r="56">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1647568049499387</v>
+        <v>0.1610446486117809</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1368473887847866</v>
+        <v>0.142002989224116</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.02834159334627471</v>
+        <v>0.0343890615218664</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.2625267875723992</v>
+        <v>0.2636500202367475</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2368472026579822</v>
+        <v>0.2407013276082582</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1203176310351107</v>
+        <v>0.1259029766817781</v>
       </c>
     </row>
     <row r="58">
